--- a/dados_precipitacao/df_diario.xlsx
+++ b/dados_precipitacao/df_diario.xlsx
@@ -454,7 +454,7 @@
         <v>43524</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>1.8288</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>43527</v>
       </c>
       <c r="B5" t="n">
-        <v>4.4</v>
+        <v>4.368799999999999</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>43530</v>
       </c>
       <c r="B8" t="n">
-        <v>3.2</v>
+        <v>3.2258</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>43531</v>
       </c>
       <c r="B9" t="n">
-        <v>10.8</v>
+        <v>10.7696</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>43532</v>
       </c>
       <c r="B10" t="n">
-        <v>4.1</v>
+        <v>4.114800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>43533</v>
       </c>
       <c r="B11" t="n">
-        <v>2.1</v>
+        <v>2.057399999999999</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>43534</v>
       </c>
       <c r="B12" t="n">
-        <v>6.2</v>
+        <v>6.172200000000001</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>43535</v>
       </c>
       <c r="B13" t="n">
-        <v>2.8</v>
+        <v>2.794</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>43536</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5</v>
+        <v>11.4554</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>43537</v>
       </c>
       <c r="B15" t="n">
-        <v>4.4</v>
+        <v>4.3688</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>43539</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="18">
@@ -590,7 +590,7 @@
         <v>43541</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>43542</v>
       </c>
       <c r="B20" t="n">
-        <v>1.9</v>
+        <v>1.8542</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>43544</v>
       </c>
       <c r="B22" t="n">
-        <v>2.3</v>
+        <v>2.286</v>
       </c>
     </row>
     <row r="23">
@@ -630,7 +630,7 @@
         <v>43546</v>
       </c>
       <c r="B24" t="n">
-        <v>11.7</v>
+        <v>11.7094</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>43547</v>
       </c>
       <c r="B25" t="n">
-        <v>1.4</v>
+        <v>1.3716</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>43548</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5</v>
+        <v>0.4571999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>43549</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43550</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5</v>
+        <v>0.4571999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -678,7 +678,7 @@
         <v>43552</v>
       </c>
       <c r="B30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1534</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>43553</v>
       </c>
       <c r="B31" t="n">
-        <v>17.3</v>
+        <v>17.3482</v>
       </c>
     </row>
     <row r="32">
@@ -750,7 +750,7 @@
         <v>43561</v>
       </c>
       <c r="B39" t="n">
-        <v>23.1</v>
+        <v>23.0886</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>43562</v>
       </c>
       <c r="B40" t="n">
-        <v>25.8</v>
+        <v>25.83180000000001</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43563</v>
       </c>
       <c r="B41" t="n">
-        <v>1.6</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="42">
@@ -830,7 +830,7 @@
         <v>43571</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>12.0142</v>
       </c>
     </row>
     <row r="50">
@@ -878,7 +878,7 @@
         <v>43577</v>
       </c>
       <c r="B55" t="n">
-        <v>8.199999999999999</v>
+        <v>8.229600000000003</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>43578</v>
       </c>
       <c r="B56" t="n">
-        <v>1.1</v>
+        <v>1.143</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>43579</v>
       </c>
       <c r="B57" t="n">
-        <v>13.6</v>
+        <v>13.6144</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>43580</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9</v>
+        <v>0.9143999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -918,7 +918,7 @@
         <v>43582</v>
       </c>
       <c r="B60" t="n">
-        <v>5.1</v>
+        <v>5.130800000000001</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>43583</v>
       </c>
       <c r="B61" t="n">
-        <v>4.1</v>
+        <v>4.114800000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1014,7 +1014,7 @@
         <v>43594</v>
       </c>
       <c r="B72" t="n">
-        <v>2.5</v>
+        <v>2.5146</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>43595</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5</v>
+        <v>0.4571999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>43596</v>
       </c>
       <c r="B74" t="n">
-        <v>22.9</v>
+        <v>22.91080000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1046,7 +1046,7 @@
         <v>43598</v>
       </c>
       <c r="B76" t="n">
-        <v>16.1</v>
+        <v>16.0782</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>43599</v>
       </c>
       <c r="B77" t="n">
-        <v>2.3</v>
+        <v>2.286</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>43600</v>
       </c>
       <c r="B78" t="n">
-        <v>2.1</v>
+        <v>2.1082</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>43601</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5</v>
+        <v>0.4571999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>43602</v>
       </c>
       <c r="B80" t="n">
-        <v>12.4</v>
+        <v>12.4206</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>43603</v>
       </c>
       <c r="B81" t="n">
-        <v>4.2</v>
+        <v>4.2418</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>43604</v>
       </c>
       <c r="B82" t="n">
-        <v>3.9</v>
+        <v>3.886200000000001</v>
       </c>
     </row>
     <row r="83">
@@ -1118,7 +1118,7 @@
         <v>43607</v>
       </c>
       <c r="B85" t="n">
-        <v>3.5</v>
+        <v>3.4798</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>43608</v>
       </c>
       <c r="B86" t="n">
-        <v>1.8</v>
+        <v>1.8288</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>43609</v>
       </c>
       <c r="B87" t="n">
-        <v>24.9</v>
+        <v>24.9428</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>43610</v>
       </c>
       <c r="B88" t="n">
-        <v>3.5</v>
+        <v>3.4544</v>
       </c>
     </row>
     <row r="89">
@@ -1166,7 +1166,7 @@
         <v>43613</v>
       </c>
       <c r="B91" t="n">
-        <v>12.4</v>
+        <v>12.4206</v>
       </c>
     </row>
     <row r="92">
@@ -1182,7 +1182,7 @@
         <v>43615</v>
       </c>
       <c r="B93" t="n">
-        <v>66.59999999999999</v>
+        <v>66.57340000000002</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>43616</v>
       </c>
       <c r="B94" t="n">
-        <v>22.1</v>
+        <v>22.098</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>43617</v>
       </c>
       <c r="B95" t="n">
-        <v>58.7</v>
+        <v>58.72479999999998</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>43618</v>
       </c>
       <c r="B96" t="n">
-        <v>6.7</v>
+        <v>6.680200000000002</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>43619</v>
       </c>
       <c r="B97" t="n">
-        <v>2.3</v>
+        <v>2.286</v>
       </c>
     </row>
     <row r="98">
@@ -1230,7 +1230,7 @@
         <v>43621</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="100">
@@ -1398,7 +1398,7 @@
         <v>43642</v>
       </c>
       <c r="B120" t="n">
-        <v>11</v>
+        <v>10.9728</v>
       </c>
     </row>
     <row r="121">
@@ -1438,7 +1438,7 @@
         <v>43647</v>
       </c>
       <c r="B125" t="n">
-        <v>7.2</v>
+        <v>7.162800000000002</v>
       </c>
     </row>
     <row r="126">
@@ -1446,7 +1446,7 @@
         <v>43648</v>
       </c>
       <c r="B126" t="n">
-        <v>10.1</v>
+        <v>10.0584</v>
       </c>
     </row>
     <row r="127">
@@ -1454,7 +1454,7 @@
         <v>43649</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9</v>
+        <v>0.9143999999999999</v>
       </c>
     </row>
     <row r="128">
@@ -1542,7 +1542,7 @@
         <v>43660</v>
       </c>
       <c r="B138" t="n">
-        <v>10.3</v>
+        <v>10.287</v>
       </c>
     </row>
     <row r="139">
@@ -1550,7 +1550,7 @@
         <v>43661</v>
       </c>
       <c r="B139" t="n">
-        <v>6</v>
+        <v>5.994400000000001</v>
       </c>
     </row>
     <row r="140">
@@ -1566,7 +1566,7 @@
         <v>43663</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5</v>
+        <v>0.4571999999999999</v>
       </c>
     </row>
     <row r="142">
@@ -1574,7 +1574,7 @@
         <v>43664</v>
       </c>
       <c r="B142" t="n">
-        <v>4.1</v>
+        <v>4.114800000000001</v>
       </c>
     </row>
     <row r="143">
@@ -1582,7 +1582,7 @@
         <v>43665</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7</v>
+        <v>0.6858</v>
       </c>
     </row>
     <row r="144">
@@ -1646,7 +1646,7 @@
         <v>43673</v>
       </c>
       <c r="B151" t="n">
-        <v>10.4</v>
+        <v>10.3886</v>
       </c>
     </row>
     <row r="152">
@@ -1694,7 +1694,7 @@
         <v>43679</v>
       </c>
       <c r="B157" t="n">
-        <v>1.8</v>
+        <v>1.8288</v>
       </c>
     </row>
     <row r="158">
@@ -1782,7 +1782,7 @@
         <v>43690</v>
       </c>
       <c r="B168" t="n">
-        <v>1.9</v>
+        <v>1.8542</v>
       </c>
     </row>
     <row r="169">
@@ -1822,7 +1822,7 @@
         <v>43695</v>
       </c>
       <c r="B173" t="n">
-        <v>10.1</v>
+        <v>10.0838</v>
       </c>
     </row>
     <row r="174">
@@ -1830,7 +1830,7 @@
         <v>43696</v>
       </c>
       <c r="B174" t="n">
-        <v>1.6</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="175">
@@ -1862,7 +1862,7 @@
         <v>43700</v>
       </c>
       <c r="B178" t="n">
-        <v>0.9</v>
+        <v>0.9143999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -1878,7 +1878,7 @@
         <v>43702</v>
       </c>
       <c r="B180" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="181">
@@ -1886,7 +1886,7 @@
         <v>43703</v>
       </c>
       <c r="B181" t="n">
-        <v>0.9</v>
+        <v>0.9143999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -1894,7 +1894,7 @@
         <v>43704</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="183">
@@ -1926,7 +1926,7 @@
         <v>43708</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9</v>
+        <v>0.9143999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -1934,7 +1934,7 @@
         <v>43709</v>
       </c>
       <c r="B187" t="n">
-        <v>10.8</v>
+        <v>10.795</v>
       </c>
     </row>
     <row r="188">
@@ -1974,7 +1974,7 @@
         <v>43714</v>
       </c>
       <c r="B192" t="n">
-        <v>9.6</v>
+        <v>9.601200000000002</v>
       </c>
     </row>
     <row r="193">
@@ -1982,7 +1982,7 @@
         <v>43715</v>
       </c>
       <c r="B193" t="n">
-        <v>0.7</v>
+        <v>0.6858</v>
       </c>
     </row>
     <row r="194">
@@ -1990,7 +1990,7 @@
         <v>43716</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="195">
@@ -2022,7 +2022,7 @@
         <v>43720</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5</v>
+        <v>0.4571999999999999</v>
       </c>
     </row>
     <row r="199">
@@ -2046,7 +2046,7 @@
         <v>43723</v>
       </c>
       <c r="B201" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="202">
@@ -2070,7 +2070,7 @@
         <v>43726</v>
       </c>
       <c r="B204" t="n">
-        <v>13.4</v>
+        <v>13.3858</v>
       </c>
     </row>
     <row r="205">
@@ -2078,7 +2078,7 @@
         <v>43727</v>
       </c>
       <c r="B205" t="n">
-        <v>8.699999999999999</v>
+        <v>8.686800000000002</v>
       </c>
     </row>
     <row r="206">
@@ -2086,7 +2086,7 @@
         <v>43728</v>
       </c>
       <c r="B206" t="n">
-        <v>14.4</v>
+        <v>14.351</v>
       </c>
     </row>
     <row r="207">
@@ -2166,7 +2166,7 @@
         <v>43738</v>
       </c>
       <c r="B216" t="n">
-        <v>2.7</v>
+        <v>2.7432</v>
       </c>
     </row>
     <row r="217">
@@ -2190,7 +2190,7 @@
         <v>43741</v>
       </c>
       <c r="B219" t="n">
-        <v>0.2</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="220">
@@ -2214,7 +2214,7 @@
         <v>43744</v>
       </c>
       <c r="B222" t="n">
-        <v>9.199999999999999</v>
+        <v>9.169400000000001</v>
       </c>
     </row>
     <row r="223">
@@ -2222,7 +2222,7 @@
         <v>43745</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9</v>
+        <v>0.9143999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -2270,7 +2270,7 @@
         <v>43751</v>
       </c>
       <c r="B229" t="n">
-        <v>2.1</v>
+        <v>2.1336</v>
       </c>
     </row>
     <row r="230">
@@ -2278,7 +2278,7 @@
         <v>43752</v>
       </c>
       <c r="B230" t="n">
-        <v>16.1</v>
+        <v>16.129</v>
       </c>
     </row>
     <row r="231">
@@ -2286,7 +2286,7 @@
         <v>43753</v>
       </c>
       <c r="B231" t="n">
-        <v>16.1</v>
+        <v>16.0528</v>
       </c>
     </row>
     <row r="232">
@@ -2294,7 +2294,7 @@
         <v>43754</v>
       </c>
       <c r="B232" t="n">
-        <v>22.4</v>
+        <v>22.40280000000001</v>
       </c>
     </row>
     <row r="233">
@@ -2302,7 +2302,7 @@
         <v>43755</v>
       </c>
       <c r="B233" t="n">
-        <v>9.6</v>
+        <v>9.601200000000002</v>
       </c>
     </row>
     <row r="234">
@@ -2310,7 +2310,7 @@
         <v>43756</v>
       </c>
       <c r="B234" t="n">
-        <v>0.5</v>
+        <v>0.4571999999999999</v>
       </c>
     </row>
     <row r="235">
@@ -2334,7 +2334,7 @@
         <v>43759</v>
       </c>
       <c r="B237" t="n">
-        <v>1.8</v>
+        <v>1.8288</v>
       </c>
     </row>
     <row r="238">
@@ -2358,7 +2358,7 @@
         <v>43762</v>
       </c>
       <c r="B240" t="n">
-        <v>3.9</v>
+        <v>3.9116</v>
       </c>
     </row>
     <row r="241">
@@ -2366,7 +2366,7 @@
         <v>43763</v>
       </c>
       <c r="B241" t="n">
-        <v>1.6</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="242">
@@ -2374,7 +2374,7 @@
         <v>43764</v>
       </c>
       <c r="B242" t="n">
-        <v>1.6</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="243">
@@ -2382,7 +2382,7 @@
         <v>43765</v>
       </c>
       <c r="B243" t="n">
-        <v>24.5</v>
+        <v>24.4856</v>
       </c>
     </row>
     <row r="244">
@@ -2390,7 +2390,7 @@
         <v>43766</v>
       </c>
       <c r="B244" t="n">
-        <v>2.1</v>
+        <v>2.057399999999999</v>
       </c>
     </row>
     <row r="245">
@@ -2414,7 +2414,7 @@
         <v>43769</v>
       </c>
       <c r="B247" t="n">
-        <v>0.7</v>
+        <v>0.6858</v>
       </c>
     </row>
   </sheetData>
